--- a/Killer7/Killer 7 - Achievements.xlsx
+++ b/Killer7/Killer 7 - Achievements.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Title</t>
   </si>
@@ -51,10 +51,7 @@
     <t>Collect the Fire Ring</t>
   </si>
   <si>
-    <t>Enter the Vinculum Gate - Target 00 - Angel</t>
-  </si>
-  <si>
-    <t>Assassinate Angel - Target 00 - Angel</t>
+    <t>Enter the Vinculum Gate and defeat the Speed Smile  - Target 00 - Angel</t>
   </si>
   <si>
     <t>Complete Target 00 - Angel in Killer7 mode on Normal difficulty or higher</t>
@@ -63,69 +60,48 @@
     <t>Complete Target 00 - Angel in Killer7 mode on Deadly difficulty</t>
   </si>
   <si>
-    <t>Enter the Vinculum Gate - Target 01 - Sunset Part 1</t>
+    <t>Enter the Vinculum Gate and defeat the Phantom Smile - Target 01 - Sunset Part 1</t>
   </si>
   <si>
     <t>Collect the Water Ring</t>
   </si>
   <si>
-    <t>Assassinate Julia Kisugi - Target 01 - Sunset Part 1</t>
-  </si>
-  <si>
-    <t>Enter the Vinculum Gate - Target 01 - Sunset Part 2</t>
+    <t>Enter the Vinculum Gate and defeat the Backside Smile - Target 01 - Sunset Part 2</t>
   </si>
   <si>
     <t>Collect the Wind Ring</t>
   </si>
   <si>
-    <t>Assassinate Kurahashi &amp; Akiba - Target 01 - Sunset Part 2</t>
-  </si>
-  <si>
     <t>Complete Target 01 - Sunset in Killer7 mode on Normal difficulty or higher</t>
   </si>
   <si>
     <t>Complete Target 01 - Sunset in Killer7 mode on Deadly difficulty</t>
   </si>
   <si>
-    <t>Enter the Viculum Gate - Target 02 - Cloudman</t>
-  </si>
-  <si>
     <t>Collect the Stamina Ring</t>
   </si>
   <si>
     <t>Find all of the Ulmeyda figures and complete your collection - Target 02 - Couldman</t>
   </si>
   <si>
-    <t>Assassinate Andrei Ulmeyda - Target 02 - Cloudman</t>
-  </si>
-  <si>
     <t>Complete Target 02 - Cloudman in Killer7 mode on Normal difficulty or higher</t>
   </si>
   <si>
     <t>Complete Target 02 - Cloudman in Killer7 mode on Deadly difficulty</t>
   </si>
   <si>
-    <t>Enter the Viculum Gate - Target 03 - Encounter Part 1</t>
+    <t>Enter the Viculum Gate and defeat the Mithril - Target 03 - Encounter Part 1</t>
   </si>
   <si>
     <t>Collect the Time Ring</t>
   </si>
   <si>
-    <t>Assassinate Ayame Blackburn - Target 03 - Encounter Part 1</t>
-  </si>
-  <si>
-    <t>Enter the Viculum Gate - Target 03 - Encounter Part 2</t>
+    <t>Enter the Viculum Gate and defeat the Laser Smile - Target 03 - Encounter Part 2</t>
   </si>
   <si>
     <t>Collect the Power Ring</t>
   </si>
   <si>
-    <t>Assassinate Ayame Blackburn - Target 03 - Encounter Part 2</t>
-  </si>
-  <si>
-    <t>Assassinate Curtis Blackburn - Target 03 - Encounter Part 2</t>
-  </si>
-  <si>
     <t>Complete Target 03 - Encounter in Killer7 mode on Normal difficulty or higher</t>
   </si>
   <si>
@@ -135,25 +111,19 @@
     <t>Collect every color sample for the Punishing Rangers and complete your collection - Target 04 - Alter Ego</t>
   </si>
   <si>
-    <t>Assassinate the Punishing Rangers - Target 04 - Alter Ego</t>
-  </si>
-  <si>
     <t>Complete Target 04 - Alter Ego in Killer7 mode on Normal difficulty or higher</t>
   </si>
   <si>
     <t>Complete Target 04 - Alter Ego in Killer7 mode on Deadly difficulty</t>
   </si>
   <si>
-    <t>Enter the Viculum Gate - Target 05 - Smile Part 1</t>
-  </si>
-  <si>
-    <t>Enter the Viculum Gate - Target 05 - Smile Part 2</t>
+    <t>Enter the Viculum Gate and defeat the Timer Smile - Target 05 - Smile Part 1</t>
   </si>
   <si>
     <t>Collect all of Holbert's Cassette Tapes and complete your collection - Target 05 - Smile Part 2</t>
   </si>
   <si>
-    <t>Assassinate Greg Nightmare - Target 05 - Smile Part 2</t>
+    <t>Enter the Viculum Gate and defeat the Galactic Tomahawk Smile - Target 05 - Smile Part 2</t>
   </si>
   <si>
     <t>Defy Matsuken and complete Target 06 - Lion in Killer7 mode on Normal difficulty or higher</t>
@@ -198,10 +168,10 @@
     <t>Defeat Julia Kisugi and score 140 or more hits before your time runs out</t>
   </si>
   <si>
-    <t>Defeat Jean DePaul in one shot and without getting shot</t>
-  </si>
-  <si>
-    <t>Defeat Kurahashi &amp; Akiba only allowing them to shoot 4 rounds of projectiles</t>
+    <t>Defeat Jean DePaul in one shot</t>
+  </si>
+  <si>
+    <t>Defeat Kurahashi &amp; Akiba without firing more than 14 shots</t>
   </si>
   <si>
     <t>Defeat Andrei Ulmeyda in less than 77 seconds</t>
@@ -216,25 +186,25 @@
     <t>Defeat Curtis Blackburn without letting him get a shot off</t>
   </si>
   <si>
-    <t>Defeat Greg Nightmare without firing more than 14 shots</t>
+    <t>Defeat Greg Nightmare without firing more than 21 shots</t>
   </si>
   <si>
     <t>Kill a Camellia Smile by hitting its weakpoint and gain an excess of Thin Blood</t>
   </si>
   <si>
-    <t>Kill a Yellow Micro Smile and restore your health</t>
-  </si>
-  <si>
-    <t>Kill a Red or Blue Micro Smile and gain an excess of Thin Blood</t>
-  </si>
-  <si>
-    <t>Kill a broken smile by hitting its Jetpack's button</t>
-  </si>
-  <si>
-    <t>Kill a giant smile by shooting its eye</t>
-  </si>
-  <si>
-    <t>Kill a laser smile by hitting its weakpoint before it hits you</t>
+    <t>Kill a yellow Micro Smile and restore your health</t>
+  </si>
+  <si>
+    <t>Kill a red Micro Smile and gain an excess of Thin Blood</t>
+  </si>
+  <si>
+    <t>Kill a Broken Smile by hitting the weakpoint on its jetpack</t>
+  </si>
+  <si>
+    <t>Kill a Giant Smile by shooting its eye</t>
+  </si>
+  <si>
+    <t>Kill a Laser Smile by hitting its weakpoint</t>
   </si>
   <si>
     <t>Complete Target 00 - Angel without losing a Smith in any mode and on any difficulty</t>
@@ -261,9 +231,6 @@
     <t>Complete the game in Killer7 Mode on any difficulty in less than 3 hours</t>
   </si>
   <si>
-    <t>Complete the game in Killer7 Mode with all skills for all Smiths at level 0</t>
-  </si>
-  <si>
     <t>Complete Target 00 - Angel in Killer8 mode</t>
   </si>
   <si>
@@ -291,28 +258,13 @@
     <t>Complete Target 00 - Angel in Hopper7 mode in less than 20 minutes</t>
   </si>
   <si>
-    <t>Upgrade all of Dan Smith's skills to level 5</t>
-  </si>
-  <si>
-    <t>Upgrade all of KAEDE Smith's skills to level 5</t>
-  </si>
-  <si>
-    <t>Upgrade all of Kevin Smith's skills to level 5</t>
-  </si>
-  <si>
-    <t>Upgrade all of Coyote Smith's skills to level 5</t>
-  </si>
-  <si>
-    <t>Upgrade all of Con Smith's skills to level 5</t>
-  </si>
-  <si>
-    <t>Upgrade all of Mask de Smith's skills to level 5</t>
+    <t>Upgrade all skills for any Smith</t>
   </si>
   <si>
     <t>OTHER/EASTER EGG CHALLENGES</t>
   </si>
   <si>
-    <t>Find all Courier Pigeons</t>
+    <t>Find all Carrier Pigeons</t>
   </si>
   <si>
     <t>Break the Blood Room blood tank - Target 00 - Smile</t>
@@ -467,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -492,6 +444,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -768,7 +726,7 @@
       </c>
       <c r="L1" s="2">
         <f>COUNTIF(C:C, "&gt;0")</f>
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -781,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
@@ -804,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
@@ -822,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="16.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -845,12 +803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
@@ -862,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
@@ -873,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
@@ -885,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
@@ -896,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
@@ -919,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>0</v>
@@ -961,50 +919,88 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="b">
+      <c r="C11" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
     </row>
     <row r="12">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="C12" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
@@ -1030,46 +1026,27 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="1">
         <v>5.0</v>
       </c>
-      <c r="D14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8" t="b">
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
@@ -1077,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="5">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" s="6" t="b">
         <v>0</v>
@@ -1088,8 +1065,8 @@
       <c r="F15" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7" t="b">
-        <v>0</v>
+      <c r="G15" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="H15" s="7" t="b">
         <v>0</v>
@@ -1114,34 +1091,53 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16">
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="C16" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>0</v>
@@ -1164,7 +1160,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>0</v>
@@ -1206,46 +1202,27 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="1">
         <v>5.0</v>
       </c>
-      <c r="D20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8" t="b">
+      <c r="D20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
@@ -1253,7 +1230,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="5">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D21" s="6" t="b">
         <v>0</v>
@@ -1264,8 +1241,8 @@
       <c r="F21" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7" t="b">
-        <v>0</v>
+      <c r="G21" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="H21" s="7" t="b">
         <v>0</v>
@@ -1290,34 +1267,53 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="C22" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
     </row>
     <row r="23">
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D23" s="2" t="b">
         <v>0</v>
@@ -1336,57 +1332,95 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>5.0</v>
       </c>
-      <c r="D24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="b">
+      <c r="D24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="C25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
     </row>
     <row r="26">
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D26" s="2" t="b">
         <v>0</v>
@@ -1405,27 +1439,46 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="10">
         <v>5.0</v>
       </c>
-      <c r="D27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="b">
+      <c r="D27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
     </row>
     <row r="28">
       <c r="B28" s="1" t="s">
@@ -1451,95 +1504,57 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="1">
         <v>5.0</v>
       </c>
-      <c r="D29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8" t="b">
+      <c r="D29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="D30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
+      <c r="C30" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="1">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D31" s="2" t="b">
         <v>0</v>
@@ -1551,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="b">
         <v>0</v>
@@ -1562,138 +1577,91 @@
         <v>40</v>
       </c>
       <c r="C32" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1">
         <v>5.0</v>
       </c>
-      <c r="D32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="D34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4.0</v>
-      </c>
       <c r="D36" s="2" t="b">
         <v>0</v>
       </c>
@@ -1704,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>0</v>
@@ -1712,10 +1680,10 @@
     </row>
     <row r="37">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D37" s="2" t="b">
         <v>0</v>
@@ -1727,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -1735,10 +1703,10 @@
     </row>
     <row r="38">
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D38" s="2" t="b">
         <v>0</v>
@@ -1750,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>0</v>
@@ -1758,10 +1726,10 @@
     </row>
     <row r="39">
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D39" s="2" t="b">
         <v>0</v>
@@ -1776,15 +1744,15 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C40" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D40" s="2" t="b">
         <v>0</v>
@@ -1799,15 +1767,15 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="D41" s="2" t="b">
         <v>0</v>
@@ -1827,7 +1795,7 @@
     </row>
     <row r="42">
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1">
         <v>10.0</v>
@@ -1849,19 +1817,34 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>51</v>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="D44" s="2" t="b">
         <v>0</v>
@@ -1880,11 +1863,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1">
         <v>10.0</v>
@@ -1906,14 +1886,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="B46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="1">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="D46" s="2" t="b">
         <v>0</v>
@@ -1959,7 +1936,7 @@
         <v>59</v>
       </c>
       <c r="C48" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D48" s="2" t="b">
         <v>0</v>
@@ -1982,7 +1959,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D49" s="2" t="b">
         <v>0</v>
@@ -2005,7 +1982,7 @@
         <v>61</v>
       </c>
       <c r="C50" s="1">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="D50" s="2" t="b">
         <v>0</v>
@@ -2074,7 +2051,7 @@
         <v>64</v>
       </c>
       <c r="C53" s="1">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="D53" s="2" t="b">
         <v>0</v>
@@ -2097,7 +2074,7 @@
         <v>65</v>
       </c>
       <c r="C54" s="1">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="D54" s="2" t="b">
         <v>0</v>
@@ -2143,7 +2120,7 @@
         <v>67</v>
       </c>
       <c r="C56" s="1">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="D56" s="2" t="b">
         <v>0</v>
@@ -2166,7 +2143,7 @@
         <v>68</v>
       </c>
       <c r="C57" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D57" s="2" t="b">
         <v>0</v>
@@ -2189,7 +2166,7 @@
         <v>69</v>
       </c>
       <c r="C58" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D58" s="2" t="b">
         <v>0</v>
@@ -2208,26 +2185,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2235,7 +2194,7 @@
         <v>71</v>
       </c>
       <c r="C60" s="1">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="D60" s="2" t="b">
         <v>0</v>
@@ -2438,8 +2397,26 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="C69" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2447,7 +2424,7 @@
         <v>81</v>
       </c>
       <c r="C70" s="1">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="D70" s="2" t="b">
         <v>0</v>
@@ -2466,26 +2443,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C71" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="D71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2493,7 +2452,7 @@
         <v>83</v>
       </c>
       <c r="C72" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D72" s="2" t="b">
         <v>0</v>
@@ -2516,7 +2475,7 @@
         <v>84</v>
       </c>
       <c r="C73" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D73" s="2" t="b">
         <v>0</v>
@@ -2539,7 +2498,7 @@
         <v>85</v>
       </c>
       <c r="C74" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D74" s="2" t="b">
         <v>0</v>
@@ -2562,7 +2521,7 @@
         <v>86</v>
       </c>
       <c r="C75" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D75" s="2" t="b">
         <v>0</v>
@@ -2585,7 +2544,7 @@
         <v>87</v>
       </c>
       <c r="C76" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D76" s="2" t="b">
         <v>0</v>
@@ -2608,7 +2567,7 @@
         <v>88</v>
       </c>
       <c r="C77" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D77" s="2" t="b">
         <v>0</v>
@@ -2631,7 +2590,7 @@
         <v>89</v>
       </c>
       <c r="C78" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D78" s="2" t="b">
         <v>0</v>
@@ -2654,7 +2613,7 @@
         <v>90</v>
       </c>
       <c r="C79" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D79" s="2" t="b">
         <v>0</v>
@@ -2677,7 +2636,7 @@
         <v>91</v>
       </c>
       <c r="C80" s="1">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="D80" s="2" t="b">
         <v>0</v>
@@ -2700,7 +2659,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D81" s="2" t="b">
         <v>0</v>
@@ -2723,7 +2682,7 @@
         <v>93</v>
       </c>
       <c r="C82" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D82" s="2" t="b">
         <v>0</v>
@@ -2742,12 +2701,6 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D83" s="2" t="b">
         <v>0</v>
       </c>
@@ -2765,12 +2718,6 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D84" s="2" t="b">
         <v>0</v>
       </c>
@@ -2788,12 +2735,6 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D85" s="2" t="b">
         <v>0</v>
       </c>
@@ -2811,12 +2752,6 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D86" s="2" t="b">
         <v>0</v>
       </c>
@@ -2834,17 +2769,23 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>98</v>
+      <c r="D87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="1">
-        <v>4.0</v>
-      </c>
       <c r="D88" s="2" t="b">
         <v>0</v>
       </c>
@@ -2862,12 +2803,6 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D89" s="2" t="b">
         <v>0</v>
       </c>
@@ -2885,12 +2820,6 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D90" s="2" t="b">
         <v>0</v>
       </c>
@@ -2908,12 +2837,6 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D91" s="2" t="b">
         <v>0</v>
       </c>
@@ -2931,12 +2854,6 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D92" s="2" t="b">
         <v>0</v>
       </c>
@@ -2954,12 +2871,6 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D93" s="2" t="b">
         <v>0</v>
       </c>
@@ -2977,12 +2888,6 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D94" s="2" t="b">
         <v>0</v>
       </c>
@@ -3000,12 +2905,6 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D95" s="2" t="b">
         <v>0</v>
       </c>
@@ -3023,12 +2922,6 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D96" s="2" t="b">
         <v>0</v>
       </c>
@@ -3046,12 +2939,6 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="1">
-        <v>3.0</v>
-      </c>
       <c r="D97" s="2" t="b">
         <v>0</v>
       </c>
@@ -3069,12 +2956,6 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="1">
-        <v>3.0</v>
-      </c>
       <c r="D98" s="2" t="b">
         <v>0</v>
       </c>
@@ -3530,287 +3411,15 @@
         <v>0</v>
       </c>
       <c r="H124" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="D125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G125" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="D126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F126" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="D127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="D128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F128" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G128" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="D129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F129" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="D130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F130" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G130" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H130" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="D131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F131" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="D132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F132" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G132" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="D133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F133" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G133" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="D134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F134" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G134" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="D135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F135" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G135" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="D136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F136" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G136" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="D137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F137" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G137" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="D138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F138" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G138" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="D139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F139" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G139" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="D140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G140" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H140" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A71:H71"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3831,32 +3440,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3875,98 +3484,98 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
